--- a/BLOQUEADO.xlsx
+++ b/BLOQUEADO.xlsx
@@ -257,9 +257,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1596600</xdr:colOff>
+      <xdr:colOff>1596240</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -272,8 +272,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6210360" y="5486400"/>
-          <a:ext cx="1837800" cy="1790280"/>
+          <a:off x="6211080" y="5486400"/>
+          <a:ext cx="1837800" cy="1789920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -297,7 +297,7 @@
   <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -375,9 +375,7 @@
       <c r="F8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
-        <v>944872</v>
-      </c>
+      <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -432,7 +430,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
@@ -440,7 +438,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
@@ -448,7 +446,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="9"/>

--- a/BLOQUEADO.xlsx
+++ b/BLOQUEADO.xlsx
@@ -246,48 +246,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571680</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1596240</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Image 1" descr="Picture"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6211080" y="5486400"/>
-          <a:ext cx="1837800" cy="1789920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1344,6 +1302,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/BLOQUEADO.xlsx
+++ b/BLOQUEADO.xlsx
@@ -187,7 +187,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -252,10 +252,10 @@
     <tabColor rgb="FF000000"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="AMJ17" activeCellId="0" sqref="AMJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -373,6 +373,7 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
@@ -381,6 +382,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
@@ -388,7 +390,8 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
@@ -396,7 +399,8 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
@@ -404,7 +408,8 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="9"/>
@@ -1247,7 +1252,7 @@
     <mergeCell ref="A5:F8"/>
     <mergeCell ref="A9:F12"/>
     <mergeCell ref="A13:E17"/>
-    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F13:G17"/>
     <mergeCell ref="A18:F22"/>
     <mergeCell ref="A23:C27"/>
     <mergeCell ref="D23:F27"/>

--- a/BLOQUEADO.xlsx
+++ b/BLOQUEADO.xlsx
@@ -76,10 +76,11 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="20"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
